--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\#PCB#\DONGLE01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{290BEE2E-E456-464D-8313-EBBCC3F51709}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EC5AD0-E90C-4A6A-9057-C7C6F4608521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{A96C6B29-EA84-44A7-AC73-3A92D4441D95}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{18858191-C92A-441F-883C-DEAF046DC5C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61BD4BFB-62E4-4153-9C0A-211559B488BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4329D241-84E6-45E5-A0B9-D56EA2D47B35}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
+++ b/Project Outputs for DONGLE01/Generate Files/BOM/Bill of Materials-DONGLE01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BENADUCE\Documents\GitHub\Dongle01\Project Outputs for DONGLE01\Generate Files\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43EC5AD0-E90C-4A6A-9057-C7C6F4608521}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF11BE9-9749-4679-9EFF-9D0A1AC9D58C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{18858191-C92A-441F-883C-DEAF046DC5C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14715" xr2:uid="{22CB8292-9508-4866-99EA-4A0DF4B1DC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-DONGLE01" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4329D241-84E6-45E5-A0B9-D56EA2D47B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F41B24EE-5AFD-44CE-9D70-92841B29EAB4}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
